--- a/MIA-104_Machine_Learning/EF_01/comparación.xlsx
+++ b/MIA-104_Machine_Learning/EF_01/comparación.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kainak0\Documents\gitProjects\mia\MIA-104_Machine_Learning\EF_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\Documents\gitProjects\mia\MIA-104_Machine_Learning\EF_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984C79D7-3B25-4B75-B3E0-8E2420A12831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524B5464-2082-4AD5-A689-4F6061EE70CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t>Decision tree</t>
   </si>
@@ -72,6 +72,42 @@
   </si>
   <si>
     <t>Peso (MB)</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>bearing</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>normal_end</t>
+  </si>
+  <si>
+    <t>fault_start</t>
+  </si>
+  <si>
+    <t>faul</t>
+  </si>
+  <si>
+    <t>Outer Race</t>
+  </si>
+  <si>
+    <t>fault_end</t>
+  </si>
+  <si>
+    <t>normal_start</t>
+  </si>
+  <si>
+    <t>Rare</t>
+  </si>
+  <si>
+    <t>Roller element</t>
+  </si>
+  <si>
+    <t>Inner Race</t>
   </si>
 </sst>
 </file>
@@ -128,7 +164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -222,27 +258,116 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,220 +648,662 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="AB10:AF27"/>
+  <dimension ref="A10:AH32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="AD27" sqref="AD27:AF27"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="29" max="29" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="28:32" x14ac:dyDescent="0.35">
-      <c r="AD10" s="6" t="s">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AF10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
-    </row>
-    <row r="11" spans="28:32" x14ac:dyDescent="0.35">
-      <c r="AC11" s="4" t="s">
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AE11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AD11" s="2" t="s">
+      <c r="AF11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AE11" s="2" t="s">
+      <c r="AG11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AF11" s="2" t="s">
+      <c r="AH11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="28:32" x14ac:dyDescent="0.35">
-      <c r="AB12" s="5" t="s">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AD12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AC12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="1">
+      <c r="AE12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="1">
         <v>0.73</v>
       </c>
-      <c r="AE12" s="1">
+      <c r="AG12" s="1">
         <v>0.98</v>
       </c>
-      <c r="AF12" s="1">
+      <c r="AH12" s="1">
         <v>0.99</v>
       </c>
     </row>
-    <row r="13" spans="28:32" x14ac:dyDescent="0.35">
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="3" t="s">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AF13" s="1">
         <v>0.64</v>
       </c>
-      <c r="AE13" s="1">
+      <c r="AG13" s="1">
         <v>0.86</v>
       </c>
-      <c r="AF13" s="1">
+      <c r="AH13" s="1">
         <v>0.93</v>
       </c>
     </row>
-    <row r="14" spans="28:32" x14ac:dyDescent="0.35">
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="3" t="s">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AD14" s="1">
+      <c r="AF14" s="1">
         <v>0.93</v>
       </c>
-      <c r="AE14" s="1">
+      <c r="AG14" s="1">
         <v>0.99</v>
       </c>
-      <c r="AF14" s="1">
+      <c r="AH14" s="1">
         <v>0.99</v>
       </c>
     </row>
-    <row r="15" spans="28:32" x14ac:dyDescent="0.35">
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="3" t="s">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AD15" s="1">
+      <c r="AF15" s="1">
         <v>0.84</v>
       </c>
-      <c r="AE15" s="1">
+      <c r="AG15" s="1">
         <v>0.99</v>
       </c>
-      <c r="AF15" s="1">
+      <c r="AH15" s="1">
         <v>0.99</v>
       </c>
     </row>
-    <row r="18" spans="28:32" x14ac:dyDescent="0.35">
-      <c r="AD18" s="6" t="s">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="6"/>
-    </row>
-    <row r="19" spans="28:32" x14ac:dyDescent="0.35">
-      <c r="AC19" s="4" t="s">
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="15" t="str">
+        <f>$A$16&amp;"-"&amp;A17&amp;"-"&amp;$B$16&amp;"-"&amp;B17</f>
+        <v>test-1-bearing-1</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0</v>
+      </c>
+      <c r="E17" s="16">
+        <v>2155</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AD19" s="2" t="s">
+      <c r="AF17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AE19" s="2" t="s">
+      <c r="AG17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AF19" s="2" t="s">
+      <c r="AH17" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="28:32" x14ac:dyDescent="0.35">
-      <c r="AB20" s="5" t="s">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" s="15" t="str">
+        <f t="shared" ref="C18:C32" si="0">$A$16&amp;"-"&amp;A18&amp;"-"&amp;$B$16&amp;"-"&amp;B18</f>
+        <v>test-1-bearing-2</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0</v>
+      </c>
+      <c r="E18" s="16">
+        <v>2155</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AC20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="1">
+      <c r="AE18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="1">
         <v>11.3</v>
       </c>
-      <c r="AE20" s="1">
+      <c r="AG18" s="1">
         <v>2.2999999999999998</v>
       </c>
+      <c r="AH18" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>test-1-bearing-3</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0</v>
+      </c>
+      <c r="F19" s="16">
+        <v>0</v>
+      </c>
+      <c r="G19" s="16">
+        <v>2155</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>test-1-bearing-4</v>
+      </c>
+      <c r="D20" s="16">
+        <v>228</v>
+      </c>
+      <c r="E20" s="16">
+        <v>1800</v>
+      </c>
+      <c r="F20" s="16">
+        <v>1801</v>
+      </c>
+      <c r="G20" s="16">
+        <v>2155</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="AF20" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>test-1-bearing-5</v>
+      </c>
+      <c r="D21" s="16">
+        <v>0</v>
+      </c>
+      <c r="E21" s="16">
+        <v>2007</v>
+      </c>
+      <c r="F21" s="16">
+        <v>2121</v>
+      </c>
+      <c r="G21" s="16">
+        <v>2155</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF21" s="6">
+        <v>26</v>
+      </c>
+      <c r="AG21" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AH21" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>test-1-bearing-6</v>
+      </c>
+      <c r="D22" s="16">
+        <v>0</v>
+      </c>
+      <c r="E22" s="16">
+        <v>2007</v>
+      </c>
+      <c r="F22" s="16">
+        <v>2121</v>
+      </c>
+      <c r="G22" s="16">
+        <v>2155</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF22" s="7">
+        <v>218</v>
+      </c>
+      <c r="AG22" s="8">
+        <v>125</v>
+      </c>
+      <c r="AH22" s="9">
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="28:32" x14ac:dyDescent="0.35">
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="3" t="s">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>1</v>
       </c>
-      <c r="AD21" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="AE21" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="AF21" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="22" spans="28:32" x14ac:dyDescent="0.35">
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="3" t="s">
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>test-1-bearing-7</v>
+      </c>
+      <c r="D23" s="16">
+        <v>0</v>
+      </c>
+      <c r="E23" s="16">
+        <v>1250</v>
+      </c>
+      <c r="F23" s="16">
+        <v>1574</v>
+      </c>
+      <c r="G23" s="16">
+        <v>2000</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>test-1-bearing-8</v>
+      </c>
+      <c r="D24" s="19">
+        <v>0</v>
+      </c>
+      <c r="E24" s="19">
+        <v>1250</v>
+      </c>
+      <c r="F24" s="19">
+        <v>1574</v>
+      </c>
+      <c r="G24" s="19">
+        <v>2000</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>2</v>
       </c>
-      <c r="AD22" s="1">
-        <v>5.2</v>
-      </c>
-      <c r="AE22" s="1">
-        <v>2.9</v>
-      </c>
-      <c r="AF22" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="23" spans="28:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="3" t="s">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>test-2-bearing-1</v>
+      </c>
+      <c r="D25" s="13">
+        <v>0</v>
+      </c>
+      <c r="E25" s="13">
+        <v>531</v>
+      </c>
+      <c r="F25" s="13">
+        <v>532</v>
+      </c>
+      <c r="G25" s="13">
+        <v>982</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF25">
+        <f>+AVERAGE(AF18:AF21)</f>
+        <v>10.775</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" ref="AG25:AH25" si="1">+AVERAGE(AG18:AG21)</f>
+        <v>3.8</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="1"/>
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>test-2-bearing-2</v>
+      </c>
+      <c r="D26" s="16">
+        <v>0</v>
+      </c>
+      <c r="E26" s="16">
+        <v>698</v>
+      </c>
+      <c r="F26" s="16">
+        <v>703</v>
+      </c>
+      <c r="G26" s="16">
+        <v>983</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
         <v>3</v>
       </c>
-      <c r="AD23" s="8">
-        <v>26</v>
-      </c>
-      <c r="AE23" s="8">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="AF23" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="24" spans="28:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD24" s="9">
-        <v>218</v>
-      </c>
-      <c r="AE24" s="10">
-        <v>125</v>
-      </c>
-      <c r="AF24" s="11">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="27" spans="28:32" x14ac:dyDescent="0.35">
-      <c r="AD27">
-        <f>+AVERAGE(AD20:AD23)</f>
-        <v>10.775</v>
-      </c>
-      <c r="AE27">
-        <f t="shared" ref="AE27:AF27" si="0">+AVERAGE(AE20:AE23)</f>
-        <v>3.8</v>
-      </c>
-      <c r="AF27">
+      <c r="C27" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>0.17499999999999999</v>
+        <v>test-2-bearing-3</v>
+      </c>
+      <c r="D27" s="16">
+        <v>0</v>
+      </c>
+      <c r="E27" s="16">
+        <v>803</v>
+      </c>
+      <c r="F27" s="16">
+        <v>886</v>
+      </c>
+      <c r="G27" s="16">
+        <v>983</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>test-2-bearing-4</v>
+      </c>
+      <c r="D28" s="19">
+        <v>0</v>
+      </c>
+      <c r="E28" s="19">
+        <v>678</v>
+      </c>
+      <c r="F28" s="19">
+        <v>709</v>
+      </c>
+      <c r="G28" s="19">
+        <v>983</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>test-3-bearing-1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>6040</v>
+      </c>
+      <c r="F29">
+        <v>6181</v>
+      </c>
+      <c r="G29">
+        <v>6323</v>
+      </c>
+      <c r="H29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>test-3-bearing-2</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>6040</v>
+      </c>
+      <c r="F30">
+        <v>6181</v>
+      </c>
+      <c r="G30">
+        <v>6323</v>
+      </c>
+      <c r="H30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>test-3-bearing-3</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>6040</v>
+      </c>
+      <c r="F31">
+        <v>6070</v>
+      </c>
+      <c r="G31">
+        <v>6323</v>
+      </c>
+      <c r="H31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>test-3-bearing-4</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>6040</v>
+      </c>
+      <c r="F32">
+        <v>6060</v>
+      </c>
+      <c r="G32">
+        <v>6323</v>
+      </c>
+      <c r="H32" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="AD10:AF10"/>
-    <mergeCell ref="AB12:AB15"/>
-    <mergeCell ref="AD18:AF18"/>
-    <mergeCell ref="AB20:AB23"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="AF16:AH16"/>
+    <mergeCell ref="AD18:AD21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MIA-104_Machine_Learning/EF_01/comparación.xlsx
+++ b/MIA-104_Machine_Learning/EF_01/comparación.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\Documents\gitProjects\mia\MIA-104_Machine_Learning\EF_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524B5464-2082-4AD5-A689-4F6061EE70CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824C30B6-D020-4E15-A941-87635A8BF434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -342,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -353,21 +353,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,7 +650,7 @@
   <dimension ref="A10:AH32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -671,11 +670,11 @@
   </cols>
   <sheetData>
     <row r="10" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="AF10" s="10" t="s">
+      <c r="AF10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="10"/>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="18"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="AE11" s="4" t="s">
@@ -692,7 +691,7 @@
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="AD12" s="11" t="s">
+      <c r="AD12" s="19" t="s">
         <v>9</v>
       </c>
       <c r="AE12" s="3" t="s">
@@ -709,7 +708,7 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="AD13" s="11"/>
+      <c r="AD13" s="19"/>
       <c r="AE13" s="3" t="s">
         <v>1</v>
       </c>
@@ -724,7 +723,7 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="AD14" s="11"/>
+      <c r="AD14" s="19"/>
       <c r="AE14" s="3" t="s">
         <v>2</v>
       </c>
@@ -739,7 +738,7 @@
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="AD15" s="11"/>
+      <c r="AD15" s="19"/>
       <c r="AE15" s="3" t="s">
         <v>3</v>
       </c>
@@ -760,29 +759,29 @@
       <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AF16" s="10" t="s">
+      <c r="AF16" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AG16" s="10"/>
-      <c r="AH16" s="10"/>
+      <c r="AG16" s="18"/>
+      <c r="AH16" s="18"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17">
@@ -791,19 +790,17 @@
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="15" t="str">
+      <c r="C17" s="13" t="str">
         <f>$A$16&amp;"-"&amp;A17&amp;"-"&amp;$B$16&amp;"-"&amp;B17</f>
         <v>test-1-bearing-1</v>
       </c>
-      <c r="D17" s="16">
-        <v>0</v>
-      </c>
-      <c r="E17" s="16">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
         <v>2155</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="14" t="s">
         <v>21</v>
       </c>
       <c r="AE17" s="4" t="s">
@@ -826,22 +823,20 @@
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18" s="15" t="str">
+      <c r="C18" s="13" t="str">
         <f t="shared" ref="C18:C32" si="0">$A$16&amp;"-"&amp;A18&amp;"-"&amp;$B$16&amp;"-"&amp;B18</f>
         <v>test-1-bearing-2</v>
       </c>
-      <c r="D18" s="16">
-        <v>0</v>
-      </c>
-      <c r="E18" s="16">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
         <v>2155</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AD18" s="11" t="s">
+      <c r="AD18" s="19" t="s">
         <v>9</v>
       </c>
       <c r="AE18" s="3" t="s">
@@ -864,26 +859,26 @@
       <c r="B19">
         <v>3</v>
       </c>
-      <c r="C19" s="15" t="str">
+      <c r="C19" s="13" t="str">
         <f t="shared" si="0"/>
         <v>test-1-bearing-3</v>
       </c>
-      <c r="D19" s="16">
-        <v>0</v>
-      </c>
-      <c r="E19" s="16">
-        <v>0</v>
-      </c>
-      <c r="F19" s="16">
-        <v>0</v>
-      </c>
-      <c r="G19" s="16">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>2155</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AD19" s="11"/>
+      <c r="AD19" s="19"/>
       <c r="AE19" s="3" t="s">
         <v>1</v>
       </c>
@@ -904,26 +899,26 @@
       <c r="B20">
         <v>4</v>
       </c>
-      <c r="C20" s="15" t="str">
+      <c r="C20" s="13" t="str">
         <f t="shared" si="0"/>
         <v>test-1-bearing-4</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20">
         <v>228</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20">
         <v>1800</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20">
         <v>1801</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20">
         <v>2155</v>
       </c>
-      <c r="H20" s="17" t="s">
+      <c r="H20" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AD20" s="11"/>
+      <c r="AD20" s="19"/>
       <c r="AE20" s="3" t="s">
         <v>2</v>
       </c>
@@ -944,26 +939,26 @@
       <c r="B21">
         <v>5</v>
       </c>
-      <c r="C21" s="15" t="str">
+      <c r="C21" s="13" t="str">
         <f t="shared" si="0"/>
         <v>test-1-bearing-5</v>
       </c>
-      <c r="D21" s="16">
-        <v>0</v>
-      </c>
-      <c r="E21" s="16">
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
         <v>2007</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21">
         <v>2121</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21">
         <v>2155</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AD21" s="11"/>
+      <c r="AD21" s="19"/>
       <c r="AE21" s="3" t="s">
         <v>3</v>
       </c>
@@ -984,23 +979,23 @@
       <c r="B22">
         <v>6</v>
       </c>
-      <c r="C22" s="15" t="str">
+      <c r="C22" s="13" t="str">
         <f t="shared" si="0"/>
         <v>test-1-bearing-6</v>
       </c>
-      <c r="D22" s="16">
-        <v>0</v>
-      </c>
-      <c r="E22" s="16">
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
         <v>2007</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22">
         <v>2121</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22">
         <v>2155</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="H22" s="14" t="s">
         <v>23</v>
       </c>
       <c r="AE22" s="5" t="s">
@@ -1023,23 +1018,23 @@
       <c r="B23">
         <v>7</v>
       </c>
-      <c r="C23" s="15" t="str">
+      <c r="C23" s="13" t="str">
         <f t="shared" si="0"/>
         <v>test-1-bearing-7</v>
       </c>
-      <c r="D23" s="16">
-        <v>0</v>
-      </c>
-      <c r="E23" s="16">
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
         <v>1250</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23">
         <v>1574</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23">
         <v>2000</v>
       </c>
-      <c r="H23" s="17" t="s">
+      <c r="H23" s="14" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1050,23 +1045,23 @@
       <c r="B24">
         <v>8</v>
       </c>
-      <c r="C24" s="18" t="str">
+      <c r="C24" s="15" t="str">
         <f t="shared" si="0"/>
         <v>test-1-bearing-8</v>
       </c>
-      <c r="D24" s="19">
-        <v>0</v>
-      </c>
-      <c r="E24" s="19">
+      <c r="D24" s="16">
+        <v>0</v>
+      </c>
+      <c r="E24" s="16">
         <v>1250</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="16">
         <v>1574</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="16">
         <v>2000</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="H24" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1077,23 +1072,23 @@
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="12" t="str">
+      <c r="C25" s="10" t="str">
         <f t="shared" si="0"/>
         <v>test-2-bearing-1</v>
       </c>
-      <c r="D25" s="13">
-        <v>0</v>
-      </c>
-      <c r="E25" s="13">
+      <c r="D25" s="11">
+        <v>0</v>
+      </c>
+      <c r="E25" s="11">
         <v>531</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="11">
         <v>532</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="11">
         <v>982</v>
       </c>
-      <c r="H25" s="14" t="s">
+      <c r="H25" s="12" t="s">
         <v>18</v>
       </c>
       <c r="AF25">
@@ -1116,23 +1111,23 @@
       <c r="B26">
         <v>2</v>
       </c>
-      <c r="C26" s="15" t="str">
+      <c r="C26" s="13" t="str">
         <f t="shared" si="0"/>
         <v>test-2-bearing-2</v>
       </c>
-      <c r="D26" s="16">
-        <v>0</v>
-      </c>
-      <c r="E26" s="16">
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
         <v>698</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26">
         <v>703</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26">
         <v>983</v>
       </c>
-      <c r="H26" s="17" t="s">
+      <c r="H26" s="14" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1143,23 +1138,23 @@
       <c r="B27">
         <v>3</v>
       </c>
-      <c r="C27" s="15" t="str">
+      <c r="C27" s="13" t="str">
         <f t="shared" si="0"/>
         <v>test-2-bearing-3</v>
       </c>
-      <c r="D27" s="16">
-        <v>0</v>
-      </c>
-      <c r="E27" s="16">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
         <v>803</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27">
         <v>886</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27">
         <v>983</v>
       </c>
-      <c r="H27" s="17" t="s">
+      <c r="H27" s="14" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1170,23 +1165,23 @@
       <c r="B28">
         <v>4</v>
       </c>
-      <c r="C28" s="18" t="str">
+      <c r="C28" s="15" t="str">
         <f t="shared" si="0"/>
         <v>test-2-bearing-4</v>
       </c>
-      <c r="D28" s="19">
-        <v>0</v>
-      </c>
-      <c r="E28" s="19">
+      <c r="D28" s="16">
+        <v>0</v>
+      </c>
+      <c r="E28" s="16">
         <v>678</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="16">
         <v>709</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="16">
         <v>983</v>
       </c>
-      <c r="H28" s="20" t="s">
+      <c r="H28" s="17" t="s">
         <v>21</v>
       </c>
     </row>

--- a/MIA-104_Machine_Learning/EF_01/comparación.xlsx
+++ b/MIA-104_Machine_Learning/EF_01/comparación.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\Documents\gitProjects\mia\MIA-104_Machine_Learning\EF_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kainak0\Documents\gitProjects\mia\MIA-104_Machine_Learning\EF_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824C30B6-D020-4E15-A941-87635A8BF434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3321329C-4463-4AD6-A4D4-5DDB63FF55B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
   <si>
     <t>Decision tree</t>
   </si>
@@ -108,13 +109,70 @@
   </si>
   <si>
     <t>Inner Race</t>
+  </si>
+  <si>
+    <t>Precisión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dataset Tiempo </t>
+  </si>
+  <si>
+    <t>Dataset Frecuenca</t>
+  </si>
+  <si>
+    <t>Dataset Caracteristicas</t>
+  </si>
+  <si>
+    <t>Precisión promedio</t>
+  </si>
+  <si>
+    <t>Tiempo de ejeciución</t>
+  </si>
+  <si>
+    <t>Tiempo promedio</t>
+  </si>
+  <si>
+    <t>Peso del archivo csv</t>
+  </si>
+  <si>
+    <t>1,483Mb</t>
+  </si>
+  <si>
+    <t>880Mb</t>
+  </si>
+  <si>
+    <t>1Mb</t>
+  </si>
+  <si>
+    <t>Compra zaranda terciaria</t>
+  </si>
+  <si>
+    <t>Servicio instalación</t>
+  </si>
+  <si>
+    <t>Monitoreo vibraciones</t>
+  </si>
+  <si>
+    <t>Servicio de grúa izaje</t>
+  </si>
+  <si>
+    <t>Monto $ (000)</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="m:ss"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +191,42 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -164,7 +258,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -204,64 +298,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -338,17 +374,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -357,16 +431,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A10:AH32"/>
+  <dimension ref="A10:AD60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="R58" sqref="R57:R58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -663,134 +755,144 @@
     <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="AF10" s="18" t="s">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="N10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AG10" s="18"/>
-      <c r="AH10" s="18"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="AE11" s="4" t="s">
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="M11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AF11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AG11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AH11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="AD12" s="19" t="s">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="L12" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="AE12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="1">
+      <c r="M12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
         <v>0.73</v>
       </c>
-      <c r="AG12" s="1">
+      <c r="O12" s="1">
         <v>0.98</v>
       </c>
-      <c r="AH12" s="1">
+      <c r="P12" s="1">
         <v>0.99</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="AD13" s="19"/>
-      <c r="AE13" s="3" t="s">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="L13" s="14"/>
+      <c r="M13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AF13" s="1">
+      <c r="N13" s="1">
         <v>0.64</v>
       </c>
-      <c r="AG13" s="1">
+      <c r="O13" s="1">
         <v>0.86</v>
       </c>
-      <c r="AH13" s="1">
+      <c r="P13" s="1">
         <v>0.93</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="3" t="s">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="L14" s="14"/>
+      <c r="M14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AF14" s="1">
+      <c r="N14" s="1">
         <v>0.93</v>
       </c>
-      <c r="AG14" s="1">
+      <c r="O14" s="1">
         <v>0.99</v>
       </c>
-      <c r="AH14" s="1">
+      <c r="P14" s="1">
         <v>0.99</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="AD15" s="19"/>
-      <c r="AE15" s="3" t="s">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="L15" s="14"/>
+      <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AF15" s="1">
+      <c r="N15" s="1">
         <v>0.84</v>
       </c>
-      <c r="AG15" s="1">
+      <c r="O15" s="1">
         <v>0.99</v>
       </c>
-      <c r="AH15" s="1">
+      <c r="P15" s="1">
         <v>0.99</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AF16" s="18" t="s">
+      <c r="N16" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AG16" s="18"/>
-      <c r="AH16" s="18"/>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="T16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="13" t="str">
+      <c r="C17" s="8" t="str">
         <f>$A$16&amp;"-"&amp;A17&amp;"-"&amp;$B$16&amp;"-"&amp;B17</f>
         <v>test-1-bearing-1</v>
       </c>
@@ -800,30 +902,23 @@
       <c r="E17">
         <v>2155</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AE17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH17" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="T17" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+    </row>
+    <row r="18" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18" s="13" t="str">
+      <c r="C18" s="8" t="str">
         <f t="shared" ref="C18:C32" si="0">$A$16&amp;"-"&amp;A18&amp;"-"&amp;$B$16&amp;"-"&amp;B18</f>
         <v>test-1-bearing-2</v>
       </c>
@@ -833,33 +928,30 @@
       <c r="E18">
         <v>2155</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AD18" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="1">
-        <v>11.3</v>
-      </c>
-      <c r="AG18" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AH18" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="S18" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="T18" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="U18" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="V18" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
-      <c r="C19" s="13" t="str">
+      <c r="C19" s="8" t="str">
         <f t="shared" si="0"/>
         <v>test-1-bearing-3</v>
       </c>
@@ -875,31 +967,33 @@
       <c r="G19">
         <v>2155</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AD19" s="19"/>
-      <c r="AE19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF19" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="AG19" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="AH19" s="1">
+      <c r="R19" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="S19" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="T19" s="16">
+        <v>11.3</v>
+      </c>
+      <c r="U19" s="16">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V19" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
-      <c r="C20" s="13" t="str">
+      <c r="C20" s="8" t="str">
         <f t="shared" si="0"/>
         <v>test-1-bearing-4</v>
       </c>
@@ -915,31 +1009,31 @@
       <c r="G20">
         <v>2155</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="H20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AD20" s="19"/>
-      <c r="AE20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF20" s="1">
-        <v>5.2</v>
-      </c>
-      <c r="AG20" s="1">
-        <v>2.9</v>
-      </c>
-      <c r="AH20" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="R20" s="14"/>
+      <c r="S20" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="T20" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="U20" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="V20" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
-      <c r="C21" s="13" t="str">
+      <c r="C21" s="8" t="str">
         <f t="shared" si="0"/>
         <v>test-1-bearing-5</v>
       </c>
@@ -955,31 +1049,31 @@
       <c r="G21">
         <v>2155</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AD21" s="19"/>
-      <c r="AE21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF21" s="6">
-        <v>26</v>
-      </c>
-      <c r="AG21" s="6">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="AH21" s="6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="R21" s="14"/>
+      <c r="S21" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="T21" s="16">
+        <v>5.2</v>
+      </c>
+      <c r="U21" s="16">
+        <v>2.9</v>
+      </c>
+      <c r="V21" s="16">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22">
         <v>6</v>
       </c>
-      <c r="C22" s="13" t="str">
+      <c r="C22" s="8" t="str">
         <f t="shared" si="0"/>
         <v>test-1-bearing-6</v>
       </c>
@@ -995,30 +1089,31 @@
       <c r="G22">
         <v>2155</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AE22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF22" s="7">
-        <v>218</v>
-      </c>
-      <c r="AG22" s="8">
-        <v>125</v>
-      </c>
-      <c r="AH22" s="9">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="R22" s="14"/>
+      <c r="S22" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22" s="16">
+        <v>26</v>
+      </c>
+      <c r="U22" s="16">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="V22" s="16">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23">
         <v>7</v>
       </c>
-      <c r="C23" s="13" t="str">
+      <c r="C23" s="8" t="str">
         <f t="shared" si="0"/>
         <v>test-1-bearing-7</v>
       </c>
@@ -1034,84 +1129,111 @@
       <c r="G23">
         <v>2000</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="S23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="T23" s="15">
+        <f>+AVERAGE(T19:T22)</f>
+        <v>10.775</v>
+      </c>
+      <c r="U23" s="16">
+        <f t="shared" ref="U23:V23" si="1">+AVERAGE(U19:U22)</f>
+        <v>3.8</v>
+      </c>
+      <c r="V23" s="15">
+        <f t="shared" si="1"/>
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24">
         <v>8</v>
       </c>
-      <c r="C24" s="15" t="str">
+      <c r="C24" s="10" t="str">
         <f t="shared" si="0"/>
         <v>test-1-bearing-8</v>
       </c>
-      <c r="D24" s="16">
-        <v>0</v>
-      </c>
-      <c r="E24" s="16">
+      <c r="D24" s="11">
+        <v>0</v>
+      </c>
+      <c r="E24" s="11">
         <v>1250</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="11">
         <v>1574</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="11">
         <v>2000</v>
       </c>
-      <c r="H24" s="17" t="s">
+      <c r="H24" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="S24" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="T24" s="19">
+        <v>218</v>
+      </c>
+      <c r="U24" s="20">
+        <v>125</v>
+      </c>
+      <c r="V24" s="21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="10" t="str">
+      <c r="C25" s="5" t="str">
         <f t="shared" si="0"/>
         <v>test-2-bearing-1</v>
       </c>
-      <c r="D25" s="11">
-        <v>0</v>
-      </c>
-      <c r="E25" s="11">
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
         <v>531</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="6">
         <v>532</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="6">
         <v>982</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AF25">
-        <f>+AVERAGE(AF18:AF21)</f>
+      <c r="N25">
+        <f>+AVERAGE(T19:T22)</f>
         <v>10.775</v>
       </c>
-      <c r="AG25">
-        <f t="shared" ref="AG25:AH25" si="1">+AVERAGE(AG18:AG21)</f>
+      <c r="O25">
+        <f>+AVERAGE(U19:U22)</f>
         <v>3.8</v>
       </c>
-      <c r="AH25">
-        <f t="shared" si="1"/>
+      <c r="P25">
+        <f>+AVERAGE(V19:V22)</f>
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
-      <c r="C26" s="13" t="str">
+      <c r="C26" s="8" t="str">
         <f t="shared" si="0"/>
         <v>test-2-bearing-2</v>
       </c>
@@ -1127,18 +1249,18 @@
       <c r="G26">
         <v>983</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="H26" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
-      <c r="C27" s="13" t="str">
+      <c r="C27" s="8" t="str">
         <f t="shared" si="0"/>
         <v>test-2-bearing-3</v>
       </c>
@@ -1154,38 +1276,38 @@
       <c r="G27">
         <v>983</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="H27" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2</v>
       </c>
       <c r="B28">
         <v>4</v>
       </c>
-      <c r="C28" s="15" t="str">
+      <c r="C28" s="10" t="str">
         <f t="shared" si="0"/>
         <v>test-2-bearing-4</v>
       </c>
-      <c r="D28" s="16">
-        <v>0</v>
-      </c>
-      <c r="E28" s="16">
+      <c r="D28" s="11">
+        <v>0</v>
+      </c>
+      <c r="E28" s="11">
         <v>678</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="11">
         <v>709</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="11">
         <v>983</v>
       </c>
-      <c r="H28" s="17" t="s">
+      <c r="H28" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1212,7 +1334,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1238,8 +1360,13 @@
       <c r="H30" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="T30" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1265,8 +1392,21 @@
       <c r="H31" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="S31" s="1"/>
+      <c r="T31" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="U31" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="V31" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="W31" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1292,14 +1432,596 @@
       <c r="H32" t="s">
         <v>21</v>
       </c>
+      <c r="R32" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="S32" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="U32" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="V32" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="W32" s="24">
+        <f>+AVERAGE(T32:V32)</f>
+        <v>0.77666666666666673</v>
+      </c>
+    </row>
+    <row r="33" spans="18:23" x14ac:dyDescent="0.35">
+      <c r="R33" s="14"/>
+      <c r="S33" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="U33" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="V33" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="W33" s="24">
+        <f t="shared" ref="W33:W35" si="2">+AVERAGE(T33:V33)</f>
+        <v>0.65333333333333332</v>
+      </c>
+    </row>
+    <row r="34" spans="18:23" x14ac:dyDescent="0.35">
+      <c r="R34" s="14"/>
+      <c r="S34" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="U34" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="V34" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="W34" s="24">
+        <f t="shared" si="2"/>
+        <v>0.83666666666666656</v>
+      </c>
+    </row>
+    <row r="35" spans="18:23" x14ac:dyDescent="0.35">
+      <c r="R35" s="14"/>
+      <c r="S35" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="U35" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="V35" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="W35" s="25">
+        <f t="shared" si="2"/>
+        <v>0.8566666666666668</v>
+      </c>
+    </row>
+    <row r="38" spans="18:23" x14ac:dyDescent="0.35">
+      <c r="T38" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+    </row>
+    <row r="39" spans="18:23" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S39" s="1"/>
+      <c r="T39" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="U39" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="V39" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="W39" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="18:23" x14ac:dyDescent="0.35">
+      <c r="R40" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="S40" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="T40" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="U40" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="V40" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="W40" s="24">
+        <f>+AVERAGE(T40:V40)</f>
+        <v>0.97666666666666657</v>
+      </c>
+    </row>
+    <row r="41" spans="18:23" x14ac:dyDescent="0.35">
+      <c r="R41" s="14"/>
+      <c r="S41" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="T41" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="U41" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="V41" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="W41" s="24">
+        <f t="shared" ref="W41:W43" si="3">+AVERAGE(T41:V41)</f>
+        <v>0.95333333333333325</v>
+      </c>
+    </row>
+    <row r="42" spans="18:23" x14ac:dyDescent="0.35">
+      <c r="R42" s="14"/>
+      <c r="S42" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="T42" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="U42" s="1">
+        <v>1</v>
+      </c>
+      <c r="V42" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="W42" s="25">
+        <f t="shared" si="3"/>
+        <v>0.99333333333333329</v>
+      </c>
+    </row>
+    <row r="43" spans="18:23" x14ac:dyDescent="0.35">
+      <c r="R43" s="14"/>
+      <c r="S43" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="T43" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="U43" s="1">
+        <v>1</v>
+      </c>
+      <c r="V43" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="W43" s="25">
+        <f t="shared" si="3"/>
+        <v>0.99333333333333329</v>
+      </c>
+    </row>
+    <row r="47" spans="18:23" x14ac:dyDescent="0.35">
+      <c r="T47" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+    </row>
+    <row r="48" spans="18:23" ht="29" x14ac:dyDescent="0.35">
+      <c r="S48" s="1"/>
+      <c r="T48" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="U48" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="V48" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="W48" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="18:30" x14ac:dyDescent="0.35">
+      <c r="R49" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="S49" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="T49" s="27">
+        <v>3.8657407407407408E-3</v>
+      </c>
+      <c r="U49" s="27">
+        <v>1.5509259259259259E-3</v>
+      </c>
+      <c r="V49" s="27">
+        <v>0</v>
+      </c>
+      <c r="W49" s="27">
+        <f>+AVERAGE(T49:V49)</f>
+        <v>1.8055555555555557E-3</v>
+      </c>
+      <c r="Y49">
+        <f>5*60+34</f>
+        <v>334</v>
+      </c>
+      <c r="Z49">
+        <f>2*60 +14</f>
+        <v>134</v>
+      </c>
+      <c r="AA49">
+        <v>0.3</v>
+      </c>
+      <c r="AB49">
+        <f>+AVERAGE(Y49:AA49)</f>
+        <v>156.1</v>
+      </c>
+      <c r="AC49">
+        <f>+AB49/60</f>
+        <v>2.6016666666666666</v>
+      </c>
+      <c r="AD49">
+        <f>0.6*60</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="18:30" x14ac:dyDescent="0.35">
+      <c r="R50" s="14"/>
+      <c r="S50" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="T50" s="27">
+        <v>1.0648148148148149E-3</v>
+      </c>
+      <c r="U50" s="27">
+        <v>1.1689814814814816E-3</v>
+      </c>
+      <c r="V50" s="27">
+        <v>0</v>
+      </c>
+      <c r="W50" s="27">
+        <f t="shared" ref="W50:W52" si="4">+AVERAGE(T50:V50)</f>
+        <v>7.4459876543209874E-4</v>
+      </c>
+      <c r="Y50">
+        <f>60+32</f>
+        <v>92</v>
+      </c>
+      <c r="Z50">
+        <f>60+41</f>
+        <v>101</v>
+      </c>
+      <c r="AA50">
+        <v>0.5</v>
+      </c>
+      <c r="AB50">
+        <f t="shared" ref="AB50:AB52" si="5">+AVERAGE(Y50:AA50)</f>
+        <v>64.5</v>
+      </c>
+      <c r="AC50">
+        <f t="shared" ref="AC50:AC52" si="6">+AB50/60</f>
+        <v>1.075</v>
+      </c>
+      <c r="AD50">
+        <f>0.075*60</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="51" spans="18:30" x14ac:dyDescent="0.35">
+      <c r="R51" s="14"/>
+      <c r="S51" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="T51" s="27">
+        <v>1.4351851851851852E-3</v>
+      </c>
+      <c r="U51" s="27">
+        <v>2.1527777777777778E-3</v>
+      </c>
+      <c r="V51" s="27">
+        <v>2.3148148148148147E-5</v>
+      </c>
+      <c r="W51" s="27">
+        <f t="shared" si="4"/>
+        <v>1.2037037037037036E-3</v>
+      </c>
+      <c r="Y51">
+        <f>2*60+4</f>
+        <v>124</v>
+      </c>
+      <c r="Z51">
+        <f>3*60+6</f>
+        <v>186</v>
+      </c>
+      <c r="AA51">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AB51">
+        <f t="shared" si="5"/>
+        <v>104.10000000000001</v>
+      </c>
+      <c r="AC51">
+        <f t="shared" si="6"/>
+        <v>1.7350000000000001</v>
+      </c>
+      <c r="AD51">
+        <f>0.735*60</f>
+        <v>44.1</v>
+      </c>
+    </row>
+    <row r="52" spans="18:30" x14ac:dyDescent="0.35">
+      <c r="R52" s="14"/>
+      <c r="S52" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" s="27">
+        <v>1.2141203703703704E-2</v>
+      </c>
+      <c r="U52" s="27">
+        <v>2.1527777777777778E-3</v>
+      </c>
+      <c r="V52" s="27">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="W52" s="28">
+        <f t="shared" si="4"/>
+        <v>4.7685185185185183E-3</v>
+      </c>
+      <c r="Y52" s="26">
+        <f>17*60+29</f>
+        <v>1049</v>
+      </c>
+      <c r="Z52">
+        <f>3*60+6</f>
+        <v>186</v>
+      </c>
+      <c r="AA52">
+        <v>1</v>
+      </c>
+      <c r="AB52">
+        <f t="shared" si="5"/>
+        <v>412</v>
+      </c>
+      <c r="AC52">
+        <f t="shared" si="6"/>
+        <v>6.8666666666666663</v>
+      </c>
+      <c r="AD52">
+        <f>0.86*60</f>
+        <v>51.6</v>
+      </c>
+    </row>
+    <row r="53" spans="18:30" x14ac:dyDescent="0.35">
+      <c r="T53" s="27">
+        <f>+AVERAGE(T49:T52)</f>
+        <v>4.626736111111111E-3</v>
+      </c>
+      <c r="U53" s="27">
+        <f t="shared" ref="U53:V53" si="7">+AVERAGE(U49:U52)</f>
+        <v>1.7563657407407406E-3</v>
+      </c>
+      <c r="V53" s="27">
+        <f t="shared" si="7"/>
+        <v>8.6805555555555555E-6</v>
+      </c>
+    </row>
+    <row r="55" spans="18:30" x14ac:dyDescent="0.35">
+      <c r="Y55" s="26">
+        <f>1049/86400</f>
+        <v>1.2141203703703704E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="18:30" x14ac:dyDescent="0.35">
+      <c r="T56" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U56" s="13"/>
+      <c r="V56" s="13"/>
+    </row>
+    <row r="57" spans="18:30" ht="29" x14ac:dyDescent="0.35">
+      <c r="S57" s="1"/>
+      <c r="T57" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="U57" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="V57" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y57" s="26">
+        <f>+Y49/86400</f>
+        <v>3.8657407407407408E-3</v>
+      </c>
+      <c r="Z57" s="26">
+        <f t="shared" ref="Z57:AB57" si="8">+Z49/86400</f>
+        <v>1.5509259259259259E-3</v>
+      </c>
+      <c r="AA57" s="26">
+        <f t="shared" si="8"/>
+        <v>3.472222222222222E-6</v>
+      </c>
+      <c r="AB57" s="26">
+        <f t="shared" si="8"/>
+        <v>1.8067129629629629E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="18:30" x14ac:dyDescent="0.35">
+      <c r="T58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V58" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y58" s="26">
+        <f t="shared" ref="Y58:AB60" si="9">+Y50/86400</f>
+        <v>1.0648148148148149E-3</v>
+      </c>
+      <c r="Z58" s="26">
+        <f t="shared" si="9"/>
+        <v>1.1689814814814816E-3</v>
+      </c>
+      <c r="AA58" s="26">
+        <f t="shared" si="9"/>
+        <v>5.7870370370370367E-6</v>
+      </c>
+      <c r="AB58" s="26">
+        <f t="shared" si="9"/>
+        <v>7.4652777777777781E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="18:30" x14ac:dyDescent="0.35">
+      <c r="Y59" s="26">
+        <f t="shared" si="9"/>
+        <v>1.4351851851851852E-3</v>
+      </c>
+      <c r="Z59" s="26">
+        <f t="shared" si="9"/>
+        <v>2.1527777777777778E-3</v>
+      </c>
+      <c r="AA59" s="26">
+        <f t="shared" si="9"/>
+        <v>2.6620370370370369E-5</v>
+      </c>
+      <c r="AB59" s="26">
+        <f t="shared" si="9"/>
+        <v>1.2048611111111112E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="18:30" x14ac:dyDescent="0.35">
+      <c r="Y60" s="26">
+        <f t="shared" si="9"/>
+        <v>1.2141203703703704E-2</v>
+      </c>
+      <c r="Z60" s="26">
+        <f t="shared" si="9"/>
+        <v>2.1527777777777778E-3</v>
+      </c>
+      <c r="AA60" s="26">
+        <f t="shared" si="9"/>
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="AB60" s="26">
+        <f t="shared" si="9"/>
+        <v>4.7685185185185183E-3</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="AF16:AH16"/>
-    <mergeCell ref="AD18:AD21"/>
+  <mergeCells count="13">
+    <mergeCell ref="R49:R52"/>
+    <mergeCell ref="T56:V56"/>
+    <mergeCell ref="R32:R35"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="T38:V38"/>
+    <mergeCell ref="R40:R43"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="R19:R22"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="T17:V17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471C2AFF-5962-4AFC-9195-B1A617DC303E}">
+  <dimension ref="M25:U31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N27" sqref="M25:N27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="13" max="13" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="25" spans="13:21" x14ac:dyDescent="0.35">
+      <c r="M25" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="N25" s="30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="13:21" x14ac:dyDescent="0.35">
+      <c r="M26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N26" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="27" spans="13:21" x14ac:dyDescent="0.35">
+      <c r="M27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N27" s="29">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="28" spans="13:21" x14ac:dyDescent="0.35">
+      <c r="M28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N28" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="13:21" x14ac:dyDescent="0.35">
+      <c r="M29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N29" s="1">
+        <v>150</v>
+      </c>
+      <c r="R29">
+        <v>26</v>
+      </c>
+      <c r="S29">
+        <f>+R29*7</f>
+        <v>182</v>
+      </c>
+      <c r="T29">
+        <f>+S29/30</f>
+        <v>6.0666666666666664</v>
+      </c>
+    </row>
+    <row r="30" spans="13:21" x14ac:dyDescent="0.35">
+      <c r="M30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N30" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="13:21" x14ac:dyDescent="0.35">
+      <c r="S31" s="31">
+        <v>45534</v>
+      </c>
+      <c r="U31" s="32">
+        <f>+S31+190</f>
+        <v>45724</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MIA-104_Machine_Learning/EF_01/comparación.xlsx
+++ b/MIA-104_Machine_Learning/EF_01/comparación.xlsx
@@ -5,16 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kainak0\Documents\gitProjects\mia\MIA-104_Machine_Learning\EF_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcallomamanib\Documents\gitProjects\mia\MIA-104_Machine_Learning\EF_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3321329C-4463-4AD6-A4D4-5DDB63FF55B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E450FE91-5B89-4507-8FE8-D64C25D5C839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="41">
   <si>
     <t>Decision tree</t>
   </si>
@@ -144,25 +143,22 @@
     <t>1Mb</t>
   </si>
   <si>
-    <t>Compra zaranda terciaria</t>
-  </si>
-  <si>
-    <t>Servicio instalación</t>
-  </si>
-  <si>
-    <t>Monitoreo vibraciones</t>
-  </si>
-  <si>
-    <t>Servicio de grúa izaje</t>
-  </si>
-  <si>
-    <t>Monto $ (000)</t>
-  </si>
-  <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>Total</t>
+    <t>Tipos de falla rodamientos</t>
+  </si>
+  <si>
+    <t>Cant. Datos</t>
+  </si>
+  <si>
+    <t>Inner race</t>
+  </si>
+  <si>
+    <t>Outer race</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Promedio por dataset</t>
   </si>
 </sst>
 </file>
@@ -170,9 +166,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="m:ss"/>
+    <numFmt numFmtId="164" formatCode="m:ss"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,23 +212,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,6 +235,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -431,34 +418,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,6 +462,1867 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="107"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="7"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" u="none"/>
+              <a:t>Cantidad de datos por falla de rodamiento</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cant. Datos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="58000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="86000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:tint val="86000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:tint val="58000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$61:$M$64</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Inner race</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Outer race</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Roller element</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Normal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$61:$N$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>854</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5077</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-86EC-43DA-ACA5-5C120CFB5E87}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr u="sng"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="107"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="7"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" u="none"/>
+              <a:t>Cantidad de datos por falla de rodamiento</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cant. Datos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="58000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-DFB3-4C8D-9DC3-83E101FEF692}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="86000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-DFB3-4C8D-9DC3-83E101FEF692}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:tint val="86000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-DFB3-4C8D-9DC3-83E101FEF692}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:tint val="58000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-DFB3-4C8D-9DC3-83E101FEF692}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$67:$M$70</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Inner race</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Outer race</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Roller element</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Normal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$67:$N$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5077</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5077</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5077</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-DFB3-4C8D-9DC3-83E101FEF692}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr u="sng"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
+  <a:schemeClr val="accent5"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
+  <a:schemeClr val="accent5"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F232A36-8A1D-F0F2-FD9D-9A4518988086}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8421A714-95DD-4A86-A306-B862B0C216C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -739,10 +2588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A10:AD60"/>
+  <dimension ref="A10:AD70"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="R58" sqref="R57:R58"/>
+    <sheetView tabSelected="1" topLeftCell="O39" workbookViewId="0">
+      <selection activeCell="S47" sqref="S47:W53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -755,11 +2604,11 @@
     <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.7265625" customWidth="1"/>
     <col min="20" max="20" width="8.36328125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.90625" bestFit="1" customWidth="1"/>
@@ -767,11 +2616,11 @@
   </cols>
   <sheetData>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="N10" s="13" t="s">
+      <c r="N10" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="M11" s="4" t="s">
@@ -788,7 +2637,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="L12" s="14" t="s">
+      <c r="L12" s="28" t="s">
         <v>9</v>
       </c>
       <c r="M12" s="3" t="s">
@@ -805,7 +2654,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="L13" s="14"/>
+      <c r="L13" s="28"/>
       <c r="M13" s="3" t="s">
         <v>1</v>
       </c>
@@ -820,7 +2669,7 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="L14" s="14"/>
+      <c r="L14" s="28"/>
       <c r="M14" s="3" t="s">
         <v>2</v>
       </c>
@@ -835,7 +2684,7 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="L15" s="14"/>
+      <c r="L15" s="28"/>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
@@ -874,16 +2723,16 @@
       <c r="H16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="13" t="s">
+      <c r="N16" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="T16" s="13" t="s">
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="T16" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17">
@@ -905,11 +2754,11 @@
       <c r="H17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="T17" s="13" t="s">
+      <c r="T17" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
     </row>
     <row r="18" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A18">
@@ -931,16 +2780,16 @@
       <c r="H18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="S18" s="23" t="s">
+      <c r="S18" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="T18" s="22" t="s">
+      <c r="T18" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="U18" s="22" t="s">
+      <c r="U18" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="V18" s="22" t="s">
+      <c r="V18" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -970,19 +2819,19 @@
       <c r="H19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R19" s="14" t="s">
+      <c r="R19" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="S19" s="16" t="s">
+      <c r="S19" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="T19" s="16">
+      <c r="T19" s="14">
         <v>11.3</v>
       </c>
-      <c r="U19" s="16">
+      <c r="U19" s="14">
         <v>2.2999999999999998</v>
       </c>
-      <c r="V19" s="16">
+      <c r="V19" s="14">
         <v>0.1</v>
       </c>
     </row>
@@ -1012,17 +2861,17 @@
       <c r="H20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R20" s="14"/>
-      <c r="S20" s="16" t="s">
+      <c r="R20" s="28"/>
+      <c r="S20" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="T20" s="16">
+      <c r="T20" s="14">
         <v>0.6</v>
       </c>
-      <c r="U20" s="16">
+      <c r="U20" s="14">
         <v>0.3</v>
       </c>
-      <c r="V20" s="16">
+      <c r="V20" s="14">
         <v>0.1</v>
       </c>
     </row>
@@ -1052,17 +2901,17 @@
       <c r="H21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R21" s="14"/>
-      <c r="S21" s="16" t="s">
+      <c r="R21" s="28"/>
+      <c r="S21" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="T21" s="16">
+      <c r="T21" s="14">
         <v>5.2</v>
       </c>
-      <c r="U21" s="16">
+      <c r="U21" s="14">
         <v>2.9</v>
       </c>
-      <c r="V21" s="16">
+      <c r="V21" s="14">
         <v>0.2</v>
       </c>
     </row>
@@ -1092,17 +2941,17 @@
       <c r="H22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R22" s="14"/>
-      <c r="S22" s="18" t="s">
+      <c r="R22" s="28"/>
+      <c r="S22" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="T22" s="16">
+      <c r="T22" s="14">
         <v>26</v>
       </c>
-      <c r="U22" s="16">
+      <c r="U22" s="14">
         <v>9.6999999999999993</v>
       </c>
-      <c r="V22" s="16">
+      <c r="V22" s="14">
         <v>0.3</v>
       </c>
     </row>
@@ -1132,18 +2981,18 @@
       <c r="H23" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="S23" s="17" t="s">
+      <c r="S23" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="T23" s="15">
+      <c r="T23" s="13">
         <f>+AVERAGE(T19:T22)</f>
         <v>10.775</v>
       </c>
-      <c r="U23" s="16">
+      <c r="U23" s="14">
         <f t="shared" ref="U23:V23" si="1">+AVERAGE(U19:U22)</f>
         <v>3.8</v>
       </c>
-      <c r="V23" s="15">
+      <c r="V23" s="13">
         <f t="shared" si="1"/>
         <v>0.17499999999999999</v>
       </c>
@@ -1174,16 +3023,16 @@
       <c r="H24" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="S24" s="17" t="s">
+      <c r="S24" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="T24" s="19">
+      <c r="T24" s="17">
         <v>218</v>
       </c>
-      <c r="U24" s="20">
+      <c r="U24" s="18">
         <v>125</v>
       </c>
-      <c r="V24" s="21">
+      <c r="V24" s="19">
         <v>0.1</v>
       </c>
     </row>
@@ -1360,11 +3209,14 @@
       <c r="H30" t="s">
         <v>21</v>
       </c>
-      <c r="T30" s="13" t="s">
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="30"/>
     </row>
     <row r="31" spans="1:23" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31">
@@ -1392,17 +3244,20 @@
       <c r="H31" t="s">
         <v>18</v>
       </c>
-      <c r="S31" s="1"/>
-      <c r="T31" s="22" t="s">
+      <c r="R31" s="30"/>
+      <c r="S31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T31" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="U31" s="22" t="s">
+      <c r="U31" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="V31" s="22" t="s">
+      <c r="V31" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="W31" s="22" t="s">
+      <c r="W31" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1432,10 +3287,10 @@
       <c r="H32" t="s">
         <v>21</v>
       </c>
-      <c r="R32" s="14" t="s">
+      <c r="R32" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="S32" s="16" t="s">
+      <c r="S32" s="14" t="s">
         <v>0</v>
       </c>
       <c r="T32" s="1">
@@ -1447,14 +3302,14 @@
       <c r="V32" s="1">
         <v>0.96</v>
       </c>
-      <c r="W32" s="24">
+      <c r="W32" s="22">
         <f>+AVERAGE(T32:V32)</f>
         <v>0.77666666666666673</v>
       </c>
     </row>
     <row r="33" spans="18:23" x14ac:dyDescent="0.35">
-      <c r="R33" s="14"/>
-      <c r="S33" s="16" t="s">
+      <c r="R33" s="28"/>
+      <c r="S33" s="14" t="s">
         <v>1</v>
       </c>
       <c r="T33" s="1">
@@ -1466,14 +3321,14 @@
       <c r="V33" s="1">
         <v>0.73</v>
       </c>
-      <c r="W33" s="24">
+      <c r="W33" s="22">
         <f t="shared" ref="W33:W35" si="2">+AVERAGE(T33:V33)</f>
         <v>0.65333333333333332</v>
       </c>
     </row>
     <row r="34" spans="18:23" x14ac:dyDescent="0.35">
-      <c r="R34" s="14"/>
-      <c r="S34" s="16" t="s">
+      <c r="R34" s="28"/>
+      <c r="S34" s="14" t="s">
         <v>2</v>
       </c>
       <c r="T34" s="1">
@@ -1485,14 +3340,14 @@
       <c r="V34" s="1">
         <v>0.97</v>
       </c>
-      <c r="W34" s="24">
+      <c r="W34" s="22">
         <f t="shared" si="2"/>
         <v>0.83666666666666656</v>
       </c>
     </row>
     <row r="35" spans="18:23" x14ac:dyDescent="0.35">
-      <c r="R35" s="14"/>
-      <c r="S35" s="16" t="s">
+      <c r="R35" s="28"/>
+      <c r="S35" s="14" t="s">
         <v>3</v>
       </c>
       <c r="T35" s="1">
@@ -1504,38 +3359,42 @@
       <c r="V35" s="1">
         <v>0.99</v>
       </c>
-      <c r="W35" s="25">
+      <c r="W35" s="23">
         <f t="shared" si="2"/>
         <v>0.8566666666666668</v>
       </c>
     </row>
     <row r="38" spans="18:23" x14ac:dyDescent="0.35">
-      <c r="T38" s="13" t="s">
+      <c r="S38" s="30"/>
+      <c r="T38" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
-    </row>
-    <row r="39" spans="18:23" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="S39" s="1"/>
-      <c r="T39" s="22" t="s">
+      <c r="U38" s="29"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="30"/>
+    </row>
+    <row r="39" spans="18:23" ht="29" x14ac:dyDescent="0.35">
+      <c r="S39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T39" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="U39" s="22" t="s">
+      <c r="U39" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="V39" s="22" t="s">
+      <c r="V39" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="W39" s="22" t="s">
+      <c r="W39" s="20" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="40" spans="18:23" x14ac:dyDescent="0.35">
-      <c r="R40" s="14" t="s">
+      <c r="R40" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="S40" s="16" t="s">
+      <c r="S40" s="14" t="s">
         <v>0</v>
       </c>
       <c r="T40" s="1">
@@ -1547,14 +3406,14 @@
       <c r="V40" s="1">
         <v>0.99</v>
       </c>
-      <c r="W40" s="24">
+      <c r="W40" s="22">
         <f>+AVERAGE(T40:V40)</f>
         <v>0.97666666666666657</v>
       </c>
     </row>
     <row r="41" spans="18:23" x14ac:dyDescent="0.35">
-      <c r="R41" s="14"/>
-      <c r="S41" s="16" t="s">
+      <c r="R41" s="28"/>
+      <c r="S41" s="14" t="s">
         <v>1</v>
       </c>
       <c r="T41" s="1">
@@ -1566,14 +3425,14 @@
       <c r="V41" s="1">
         <v>0.92</v>
       </c>
-      <c r="W41" s="24">
+      <c r="W41" s="22">
         <f t="shared" ref="W41:W43" si="3">+AVERAGE(T41:V41)</f>
         <v>0.95333333333333325</v>
       </c>
     </row>
     <row r="42" spans="18:23" x14ac:dyDescent="0.35">
-      <c r="R42" s="14"/>
-      <c r="S42" s="16" t="s">
+      <c r="R42" s="28"/>
+      <c r="S42" s="14" t="s">
         <v>2</v>
       </c>
       <c r="T42" s="1">
@@ -1585,14 +3444,14 @@
       <c r="V42" s="1">
         <v>0.99</v>
       </c>
-      <c r="W42" s="25">
+      <c r="W42" s="23">
         <f t="shared" si="3"/>
         <v>0.99333333333333329</v>
       </c>
     </row>
     <row r="43" spans="18:23" x14ac:dyDescent="0.35">
-      <c r="R43" s="14"/>
-      <c r="S43" s="16" t="s">
+      <c r="R43" s="28"/>
+      <c r="S43" s="14" t="s">
         <v>3</v>
       </c>
       <c r="T43" s="1">
@@ -1604,50 +3463,56 @@
       <c r="V43" s="1">
         <v>0.99</v>
       </c>
-      <c r="W43" s="25">
+      <c r="W43" s="23">
         <f t="shared" si="3"/>
         <v>0.99333333333333329</v>
       </c>
     </row>
     <row r="47" spans="18:23" x14ac:dyDescent="0.35">
-      <c r="T47" s="13" t="s">
+      <c r="R47" s="30"/>
+      <c r="S47" s="30"/>
+      <c r="T47" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="U47" s="13"/>
-      <c r="V47" s="13"/>
+      <c r="U47" s="29"/>
+      <c r="V47" s="29"/>
+      <c r="W47" s="30"/>
     </row>
     <row r="48" spans="18:23" ht="29" x14ac:dyDescent="0.35">
-      <c r="S48" s="1"/>
-      <c r="T48" s="22" t="s">
+      <c r="R48" s="30"/>
+      <c r="S48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T48" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="U48" s="22" t="s">
+      <c r="U48" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="V48" s="22" t="s">
+      <c r="V48" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="W48" s="22" t="s">
+      <c r="W48" s="20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="18:30" x14ac:dyDescent="0.35">
-      <c r="R49" s="14" t="s">
+    <row r="49" spans="13:30" x14ac:dyDescent="0.35">
+      <c r="R49" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="S49" s="16" t="s">
+      <c r="S49" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="T49" s="27">
+      <c r="T49" s="25">
         <v>3.8657407407407408E-3</v>
       </c>
-      <c r="U49" s="27">
+      <c r="U49" s="25">
         <v>1.5509259259259259E-3</v>
       </c>
-      <c r="V49" s="27">
+      <c r="V49" s="25">
         <v>0</v>
       </c>
-      <c r="W49" s="27">
+      <c r="W49" s="25">
         <f>+AVERAGE(T49:V49)</f>
         <v>1.8055555555555557E-3</v>
       </c>
@@ -1675,21 +3540,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="18:30" x14ac:dyDescent="0.35">
-      <c r="R50" s="14"/>
-      <c r="S50" s="16" t="s">
+    <row r="50" spans="13:30" x14ac:dyDescent="0.35">
+      <c r="R50" s="28"/>
+      <c r="S50" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="T50" s="27">
+      <c r="T50" s="25">
         <v>1.0648148148148149E-3</v>
       </c>
-      <c r="U50" s="27">
+      <c r="U50" s="25">
         <v>1.1689814814814816E-3</v>
       </c>
-      <c r="V50" s="27">
+      <c r="V50" s="25">
         <v>0</v>
       </c>
-      <c r="W50" s="27">
+      <c r="W50" s="25">
         <f t="shared" ref="W50:W52" si="4">+AVERAGE(T50:V50)</f>
         <v>7.4459876543209874E-4</v>
       </c>
@@ -1717,21 +3582,21 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="51" spans="18:30" x14ac:dyDescent="0.35">
-      <c r="R51" s="14"/>
-      <c r="S51" s="16" t="s">
+    <row r="51" spans="13:30" x14ac:dyDescent="0.35">
+      <c r="R51" s="28"/>
+      <c r="S51" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="T51" s="27">
+      <c r="T51" s="25">
         <v>1.4351851851851852E-3</v>
       </c>
-      <c r="U51" s="27">
+      <c r="U51" s="25">
         <v>2.1527777777777778E-3</v>
       </c>
-      <c r="V51" s="27">
+      <c r="V51" s="25">
         <v>2.3148148148148147E-5</v>
       </c>
-      <c r="W51" s="27">
+      <c r="W51" s="25">
         <f t="shared" si="4"/>
         <v>1.2037037037037036E-3</v>
       </c>
@@ -1759,25 +3624,25 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="52" spans="18:30" x14ac:dyDescent="0.35">
-      <c r="R52" s="14"/>
-      <c r="S52" s="16" t="s">
+    <row r="52" spans="13:30" x14ac:dyDescent="0.35">
+      <c r="R52" s="28"/>
+      <c r="S52" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="T52" s="27">
+      <c r="T52" s="25">
         <v>1.2141203703703704E-2</v>
       </c>
-      <c r="U52" s="27">
+      <c r="U52" s="25">
         <v>2.1527777777777778E-3</v>
       </c>
-      <c r="V52" s="27">
+      <c r="V52" s="25">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="W52" s="28">
+      <c r="W52" s="26">
         <f t="shared" si="4"/>
         <v>4.7685185185185183E-3</v>
       </c>
-      <c r="Y52" s="26">
+      <c r="Y52" s="24">
         <f>17*60+29</f>
         <v>1049</v>
       </c>
@@ -1801,126 +3666,214 @@
         <v>51.6</v>
       </c>
     </row>
-    <row r="53" spans="18:30" x14ac:dyDescent="0.35">
-      <c r="T53" s="27">
+    <row r="53" spans="13:30" x14ac:dyDescent="0.35">
+      <c r="S53" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="T53" s="25">
         <f>+AVERAGE(T49:T52)</f>
         <v>4.626736111111111E-3</v>
       </c>
-      <c r="U53" s="27">
+      <c r="U53" s="25">
         <f t="shared" ref="U53:V53" si="7">+AVERAGE(U49:U52)</f>
         <v>1.7563657407407406E-3</v>
       </c>
-      <c r="V53" s="27">
+      <c r="V53" s="25">
         <f t="shared" si="7"/>
         <v>8.6805555555555555E-6</v>
       </c>
-    </row>
-    <row r="55" spans="18:30" x14ac:dyDescent="0.35">
-      <c r="Y55" s="26">
+      <c r="W53" s="30"/>
+    </row>
+    <row r="55" spans="13:30" x14ac:dyDescent="0.35">
+      <c r="Y55" s="24">
         <f>1049/86400</f>
         <v>1.2141203703703704E-2</v>
       </c>
     </row>
-    <row r="56" spans="18:30" x14ac:dyDescent="0.35">
-      <c r="T56" s="13" t="s">
+    <row r="56" spans="13:30" x14ac:dyDescent="0.35">
+      <c r="T56" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="U56" s="13"/>
-      <c r="V56" s="13"/>
-    </row>
-    <row r="57" spans="18:30" ht="29" x14ac:dyDescent="0.35">
+      <c r="U56" s="29"/>
+      <c r="V56" s="29"/>
+    </row>
+    <row r="57" spans="13:30" ht="29" x14ac:dyDescent="0.35">
       <c r="S57" s="1"/>
-      <c r="T57" s="22" t="s">
+      <c r="T57" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="U57" s="22" t="s">
+      <c r="U57" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="V57" s="22" t="s">
+      <c r="V57" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="Y57" s="26">
+      <c r="Y57" s="24">
         <f>+Y49/86400</f>
         <v>3.8657407407407408E-3</v>
       </c>
-      <c r="Z57" s="26">
+      <c r="Z57" s="24">
         <f t="shared" ref="Z57:AB57" si="8">+Z49/86400</f>
         <v>1.5509259259259259E-3</v>
       </c>
-      <c r="AA57" s="26">
+      <c r="AA57" s="24">
         <f t="shared" si="8"/>
         <v>3.472222222222222E-6</v>
       </c>
-      <c r="AB57" s="26">
+      <c r="AB57" s="24">
         <f t="shared" si="8"/>
         <v>1.8067129629629629E-3</v>
       </c>
     </row>
-    <row r="58" spans="18:30" x14ac:dyDescent="0.35">
+    <row r="58" spans="13:30" x14ac:dyDescent="0.35">
       <c r="T58" s="1" t="s">
         <v>32</v>
       </c>
       <c r="U58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V58" s="29" t="s">
+      <c r="V58" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="Y58" s="26">
+      <c r="Y58" s="24">
         <f t="shared" ref="Y58:AB60" si="9">+Y50/86400</f>
         <v>1.0648148148148149E-3</v>
       </c>
-      <c r="Z58" s="26">
+      <c r="Z58" s="24">
         <f t="shared" si="9"/>
         <v>1.1689814814814816E-3</v>
       </c>
-      <c r="AA58" s="26">
+      <c r="AA58" s="24">
         <f t="shared" si="9"/>
         <v>5.7870370370370367E-6</v>
       </c>
-      <c r="AB58" s="26">
+      <c r="AB58" s="24">
         <f t="shared" si="9"/>
         <v>7.4652777777777781E-4</v>
       </c>
     </row>
-    <row r="59" spans="18:30" x14ac:dyDescent="0.35">
-      <c r="Y59" s="26">
+    <row r="59" spans="13:30" x14ac:dyDescent="0.35">
+      <c r="Y59" s="24">
         <f t="shared" si="9"/>
         <v>1.4351851851851852E-3</v>
       </c>
-      <c r="Z59" s="26">
+      <c r="Z59" s="24">
         <f t="shared" si="9"/>
         <v>2.1527777777777778E-3</v>
       </c>
-      <c r="AA59" s="26">
+      <c r="AA59" s="24">
         <f t="shared" si="9"/>
         <v>2.6620370370370369E-5</v>
       </c>
-      <c r="AB59" s="26">
+      <c r="AB59" s="24">
         <f t="shared" si="9"/>
         <v>1.2048611111111112E-3</v>
       </c>
     </row>
-    <row r="60" spans="18:30" x14ac:dyDescent="0.35">
-      <c r="Y60" s="26">
+    <row r="60" spans="13:30" x14ac:dyDescent="0.35">
+      <c r="M60" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="N60" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y60" s="24">
         <f t="shared" si="9"/>
         <v>1.2141203703703704E-2</v>
       </c>
-      <c r="Z60" s="26">
+      <c r="Z60" s="24">
         <f t="shared" si="9"/>
         <v>2.1527777777777778E-3</v>
       </c>
-      <c r="AA60" s="26">
+      <c r="AA60" s="24">
         <f t="shared" si="9"/>
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="AB60" s="26">
+      <c r="AB60" s="24">
         <f t="shared" si="9"/>
         <v>4.7685185185185183E-3</v>
       </c>
     </row>
+    <row r="61" spans="13:30" x14ac:dyDescent="0.35">
+      <c r="M61" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N61" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="13:30" x14ac:dyDescent="0.35">
+      <c r="M62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N62" s="1">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="63" spans="13:30" x14ac:dyDescent="0.35">
+      <c r="M63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N63" s="1">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="64" spans="13:30" x14ac:dyDescent="0.35">
+      <c r="M64" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N64" s="1">
+        <v>5077</v>
+      </c>
+    </row>
+    <row r="66" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="M66" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="N66" s="27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="M67" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N67" s="1">
+        <v>5077</v>
+      </c>
+    </row>
+    <row r="68" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="M68" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N68" s="1">
+        <v>5077</v>
+      </c>
+    </row>
+    <row r="69" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="M69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N69" s="1">
+        <v>5077</v>
+      </c>
+    </row>
+    <row r="70" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="M70" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N70" s="1">
+        <v>5077</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="R19:R22"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="T17:V17"/>
     <mergeCell ref="R49:R52"/>
     <mergeCell ref="T56:V56"/>
     <mergeCell ref="R32:R35"/>
@@ -1928,100 +3881,8 @@
     <mergeCell ref="T38:V38"/>
     <mergeCell ref="R40:R43"/>
     <mergeCell ref="T47:V47"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="L12:L15"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="R19:R22"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="T17:V17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471C2AFF-5962-4AFC-9195-B1A617DC303E}">
-  <dimension ref="M25:U31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="M25:N27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="13" max="13" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="25" spans="13:21" x14ac:dyDescent="0.35">
-      <c r="M25" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="N25" s="30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="13:21" x14ac:dyDescent="0.35">
-      <c r="M26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N26" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="27" spans="13:21" x14ac:dyDescent="0.35">
-      <c r="M27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N27" s="29">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="28" spans="13:21" x14ac:dyDescent="0.35">
-      <c r="M28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N28" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="13:21" x14ac:dyDescent="0.35">
-      <c r="M29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N29" s="1">
-        <v>150</v>
-      </c>
-      <c r="R29">
-        <v>26</v>
-      </c>
-      <c r="S29">
-        <f>+R29*7</f>
-        <v>182</v>
-      </c>
-      <c r="T29">
-        <f>+S29/30</f>
-        <v>6.0666666666666664</v>
-      </c>
-    </row>
-    <row r="30" spans="13:21" x14ac:dyDescent="0.35">
-      <c r="M30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N30" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="13:21" x14ac:dyDescent="0.35">
-      <c r="S31" s="31">
-        <v>45534</v>
-      </c>
-      <c r="U31" s="32">
-        <f>+S31+190</f>
-        <v>45724</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>